--- a/Pubmed/Lassa/ReferenceSummary_PubMed_Missing_Apr7.xlsx
+++ b/Pubmed/Lassa/ReferenceSummary_PubMed_Missing_Apr7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39EBCCC-58B0-FC4F-A3A4-1960C38A3071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F8062-FA12-2840-8E37-FAC5D26676EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1060" windowWidth="34560" windowHeight="19780" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
+    <workbookView xWindow="7040" yWindow="560" windowWidth="34560" windowHeight="19780" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -162,6 +162,27 @@
   </si>
   <si>
     <t>blood, brain, organs from rodents</t>
+  </si>
+  <si>
+    <t>Elucidating Infectious Causes of Fever of Unknown Origin: A Laboratory-Based Observational Study of Patients with Suspected Ebola Virus Disease, Guinea, 2014</t>
+  </si>
+  <si>
+    <t>Postigo-Hidalgo I, Magassouba N, Krüger N, Guilavogui ML, Kruger DH, Klempa B, Drexler JF.</t>
+  </si>
+  <si>
+    <t>J Infect Dis</t>
+  </si>
+  <si>
+    <t>Homo Sapiens</t>
+  </si>
+  <si>
+    <t>OQ889555</t>
+  </si>
+  <si>
+    <t>NGS</t>
+  </si>
+  <si>
+    <t>Serum</t>
   </si>
 </sst>
 </file>
@@ -637,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -651,19 +672,19 @@
     <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="47" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="22" width="17.1640625" style="1" customWidth="1"/>
@@ -827,6 +848,48 @@
       </c>
       <c r="V3" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>2025</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>39928049</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4">
+        <v>2014</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
